--- a/Q2.xlsx
+++ b/Q2.xlsx
@@ -387,15 +387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1985"/>
+  <dimension ref="A1:H1985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -414,7 +417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -426,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -435,7 +438,7 @@
         <v>6998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -444,7 +447,7 @@
         <v>41990</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -453,7 +456,7 @@
         <v>251942</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -462,7 +465,7 @@
         <v>1511654</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -470,8 +473,11 @@
       <c r="B8">
         <v>9069926</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>100001101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -480,7 +486,7 @@
         <v>4087913</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -489,7 +495,7 @@
         <v>7750265</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -498,7 +504,7 @@
         <v>12947162</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -507,7 +513,7 @@
         <v>10574114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -516,7 +522,7 @@
         <v>13113041</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -525,7 +531,7 @@
         <v>11569388</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -534,7 +540,7 @@
         <v>2307470</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
